--- a/Conditional.xlsx
+++ b/Conditional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewit\eclipse-workspace\dgdoxjava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCA0C9-0FD3-4FBB-8243-07BD2BD108E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9379603-36FF-459C-8311-4E81671E0C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{219C87F9-93C7-4D75-8EB1-F56952E01F55}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>ShipperName</t>
   </si>
@@ -183,7 +183,13 @@
     <t>Gasoline</t>
   </si>
   <si>
-    <t xml:space="preserve">  Gasoline </t>
+    <t>1D - Plywood drum(s)</t>
+  </si>
+  <si>
+    <t>Glass(es)</t>
+  </si>
+  <si>
+    <t>1B2 - Aluminium drum(s), removable head</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEEF33-CFEE-460E-9495-7A49E27B9DE7}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +736,7 @@
         <v>1203</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -777,13 +783,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1224</v>
+        <v>1517</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -801,39 +807,39 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1234</v>
+        <v>1411</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -857,10 +863,10 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -869,21 +875,21 @@
         <v>42</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1203</v>
+        <v>1403</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -916,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -951,16 +957,16 @@
         <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>41</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -969,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="O6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P6">
         <v>123</v>
@@ -977,7 +983,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1207</v>
+        <v>1234</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -992,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -1010,27 +1016,27 @@
         <v>41</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
       </c>
       <c r="O7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P7">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1042,7 +1048,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -1060,18 +1066,118 @@
         <v>41</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>42</v>
       </c>
       <c r="O8">
+        <v>30</v>
+      </c>
+      <c r="P8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="P8">
+      <c r="P10">
         <v>123</v>
       </c>
     </row>

--- a/Conditional.xlsx
+++ b/Conditional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewit\eclipse-workspace\dgdoxjava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9379603-36FF-459C-8311-4E81671E0C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810482E1-6B05-441A-8660-FEC92B883424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{219C87F9-93C7-4D75-8EB1-F56952E01F55}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>ShipperName</t>
   </si>
@@ -180,16 +180,28 @@
     <t>Isobutanol</t>
   </si>
   <si>
+    <t>1D - Plywood drum(s)</t>
+  </si>
+  <si>
+    <t>Glass(es)</t>
+  </si>
+  <si>
+    <t>1B2 - Aluminium drum(s), removable head</t>
+  </si>
+  <si>
     <t>Gasoline</t>
   </si>
   <si>
-    <t>1D - Plywood drum(s)</t>
-  </si>
-  <si>
-    <t>Glass(es)</t>
-  </si>
-  <si>
-    <t>1B2 - Aluminium drum(s), removable head</t>
+    <t>passengerAndCargo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>LQ</t>
+  </si>
+  <si>
+    <t>Plywood drum(s)</t>
   </si>
 </sst>
 </file>
@@ -225,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,14 +682,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEEF33-CFEE-460E-9495-7A49E27B9DE7}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -735,8 +749,8 @@
       <c r="A2">
         <v>1203</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -813,7 +827,7 @@
         <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -822,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -863,7 +877,7 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -922,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -1181,7 +1195,58 @@
         <v>123</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>